--- a/va_facility_data_2025-02-20/El Dorado VA Clinic - Facility Data.xlsx"; filename*=UTF-8''El%20Dorado%20VA%20Clinic%20-%20Facility%20Data.xlsx
+++ b/va_facility_data_2025-02-20/El Dorado VA Clinic - Facility Data.xlsx"; filename*=UTF-8''El%20Dorado%20VA%20Clinic%20-%20Facility%20Data.xlsx
@@ -2,9 +2,9 @@
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <x:workbook xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:x="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <x:sheets>
-    <x:sheet name="Wait Times" sheetId="1" r:id="Rd7a76e5ae28447f6b1322bc1a6cc601b"/>
-    <x:sheet name="Satisfaction with Care" sheetId="2" r:id="Re772f547f1a74073a8d7305a02db8925"/>
-    <x:sheet name="Outpatient Score" sheetId="3" r:id="R2b3630b75d734f629a809a646955abc7"/>
+    <x:sheet name="Wait Times" sheetId="1" r:id="R212c4675634e4ab8841773727f832a0a"/>
+    <x:sheet name="Satisfaction with Care" sheetId="2" r:id="R62882cb6086d4d50a363d04969d0e226"/>
+    <x:sheet name="Outpatient Score" sheetId="3" r:id="R01e5a33b3a204558b87dec002e3078d4"/>
   </x:sheets>
 </x:workbook>
 </file>
